--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_14_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_14_33.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2742607.6533205</v>
+        <v>2847546.883495864</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12561851.30939063</v>
+        <v>12443012.75936921</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283173</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8768985.269793108</v>
+        <v>8785302.71685374</v>
       </c>
     </row>
     <row r="11">
@@ -659,25 +661,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>63.25786276724509</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>124.1538981597112</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -750,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824772</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T3" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U3" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -814,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>115.129680418521</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>200.24417920122</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -896,22 +898,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>190.5958681703719</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>230.2994835575039</v>
       </c>
     </row>
     <row r="6">
@@ -987,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>18.8172186824772</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,16 +1022,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T6" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U6" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1066,13 +1068,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,10 +1104,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1117,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>144.8586974472227</v>
       </c>
       <c r="Y7" t="n">
-        <v>157.2194637059537</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1133,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1145,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>408.6124407279984</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>163.487963245084</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1230,7 +1232,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1294,22 +1296,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>1.268514116649808</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>154.573963843532</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1430,7 +1432,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.240968717414</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1525,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1537,16 +1539,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0.2811815126429997</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>59.67415913389013</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1582,10 +1584,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1664,7 +1666,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1768,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>19.91555826189146</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,7 +1821,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>167.7926244180741</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1841,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710073</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187864</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576158</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701347</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174128</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784688</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560534</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1999,22 +2001,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986276</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>117.476541083292</v>
+        <v>4.019807611472922</v>
       </c>
       <c r="F19" t="n">
-        <v>145.421048022931</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922686</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012146</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016444</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.405450327288</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892439</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.1376433238278</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.5229983365908</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890369</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2081,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2236,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819371</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986276</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182121</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465689</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.421048022931</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922686</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012146</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>109.8058856274622</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.405450327288</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.1376433238278</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.5229983365908</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890369</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520946</v>
+        <v>158.3910158645298</v>
       </c>
     </row>
     <row r="23">
@@ -2473,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>135.3135037226517</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2488,13 +2490,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2530,7 +2532,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>160.6789846282037</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2542,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2555,7 +2557,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2713,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2728,7 +2730,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>20.43112068613282</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -2767,13 +2769,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>285.5970594671152</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2947,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2956,19 +2958,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>29.24923305751846</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>192.5971349882553</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3013,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3083,7 +3085,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881276</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3190,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>141.888808295739</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>72.26558381699925</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,22 +3234,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3263,16 +3265,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206829</v>
+        <v>354.6830416206816</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3314,16 +3316,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695521</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3332,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3424,16 +3426,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>108.9065924712584</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3469,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3484,10 +3486,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>100.5140508960364</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3503,7 +3505,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.831980181937</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986275</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.615473018212</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465689</v>
+        <v>42.53134576113725</v>
       </c>
       <c r="F40" t="n">
-        <v>104.7777418077904</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922685</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462235</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856522</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012137</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016443</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.405450327288</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.5229983365907</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890368</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520945</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3743,7 +3745,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3901,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,7 +3948,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0.6324680438220639</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3955,7 +3957,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3974,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -4138,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>108.2950343703276</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4189,7 +4191,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>159.4718642460866</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1681.836054204828</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="C2" t="n">
-        <v>1617.939223126803</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810554</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.77673900139</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794325</v>
+        <v>2100.012626270159</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450754</v>
+        <v>1974.604648331057</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.97538618064</v>
+        <v>1621.835993060943</v>
       </c>
       <c r="X2" t="n">
-        <v>2071.97538618064</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="Y2" t="n">
-        <v>1681.836054204828</v>
+        <v>1248.370234799863</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811084</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999814</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387301</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332746</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601596</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927777</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064525</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228008</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>956.284402521753</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1590.463386300791</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>650.5934525793617</v>
+        <v>473.0014915127243</v>
       </c>
       <c r="C4" t="n">
-        <v>481.6572696514548</v>
+        <v>473.0014915127243</v>
       </c>
       <c r="D4" t="n">
-        <v>331.5406302391191</v>
+        <v>473.0014915127243</v>
       </c>
       <c r="E4" t="n">
-        <v>331.5406302391191</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="F4" t="n">
-        <v>331.5406302391191</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="G4" t="n">
-        <v>163.8377936138381</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1424.011591242373</v>
+        <v>1413.467639269232</v>
       </c>
       <c r="U4" t="n">
-        <v>1307.718984759018</v>
+        <v>1413.467639269232</v>
       </c>
       <c r="V4" t="n">
-        <v>1053.034496553131</v>
+        <v>1211.200791591232</v>
       </c>
       <c r="W4" t="n">
-        <v>1053.034496553131</v>
+        <v>921.7836215542718</v>
       </c>
       <c r="X4" t="n">
-        <v>1053.034496553131</v>
+        <v>693.7940706562545</v>
       </c>
       <c r="Y4" t="n">
-        <v>832.2419174096015</v>
+        <v>473.0014915127243</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2126.729101932994</v>
+        <v>1236.203140240072</v>
       </c>
       <c r="C5" t="n">
-        <v>1934.208022973022</v>
+        <v>1236.203140240072</v>
       </c>
       <c r="D5" t="n">
-        <v>1575.942324366272</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="E5" t="n">
-        <v>1190.154071768027</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="F5" t="n">
-        <v>779.1681669784198</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G5" t="n">
-        <v>364.0957168234162</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218343</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810554</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.77673900139</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T5" t="n">
-        <v>3119.628073993394</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U5" t="n">
-        <v>2866.09759726723</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="V5" t="n">
-        <v>2866.09759726723</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="W5" t="n">
-        <v>2513.328941997116</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="X5" t="n">
-        <v>2513.328941997116</v>
+        <v>1855.42872127137</v>
       </c>
       <c r="Y5" t="n">
-        <v>2513.328941997116</v>
+        <v>1622.802980304194</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811084</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999814</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387301</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332746</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601596</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927777</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064525</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>717.8525085495377</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1468.399656105703</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2102.578639884741</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>945.3964936596652</v>
+        <v>1087.683159487371</v>
       </c>
       <c r="C7" t="n">
-        <v>776.4603107317583</v>
+        <v>918.7469765594642</v>
       </c>
       <c r="D7" t="n">
-        <v>626.3436713194226</v>
+        <v>768.6303371471284</v>
       </c>
       <c r="E7" t="n">
-        <v>478.4305777370295</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="F7" t="n">
-        <v>331.5406302391191</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1735.608663915319</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1513.842048484845</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1513.842048484845</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>1513.842048484845</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W7" t="n">
-        <v>1513.842048484845</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="X7" t="n">
-        <v>1285.852497586828</v>
+        <v>1490.124203461141</v>
       </c>
       <c r="Y7" t="n">
-        <v>1127.044958489905</v>
+        <v>1269.331624317611</v>
       </c>
     </row>
     <row r="8">
@@ -4778,40 +4780,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1976.204921733553</v>
+        <v>2003.254328486388</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1634.291811545976</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1276.026112939226</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>890.2378603409813</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>479.2519555513738</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060172</v>
@@ -4829,25 +4831,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U8" t="n">
-        <v>3050.17579632305</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="V8" t="n">
-        <v>2719.112908979479</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="W8" t="n">
-        <v>2366.344253709365</v>
+        <v>2766.859418723279</v>
       </c>
       <c r="X8" t="n">
-        <v>2366.344253709365</v>
+        <v>2393.393660462199</v>
       </c>
       <c r="Y8" t="n">
-        <v>1976.204921733553</v>
+        <v>2003.254328486388</v>
       </c>
     </row>
     <row r="9">
@@ -4857,34 +4859,34 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927783</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064585</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
         <v>765.1517452158134</v>
@@ -4893,40 +4895,40 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>697.9541770656748</v>
+        <v>796.8106393615039</v>
       </c>
       <c r="C10" t="n">
-        <v>529.0179941377679</v>
+        <v>627.8744564335971</v>
       </c>
       <c r="D10" t="n">
-        <v>529.0179941377679</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574645</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218343</v>
@@ -4963,16 +4965,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4987,25 +4989,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672848</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1645.778206672848</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1645.778206672848</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V10" t="n">
-        <v>1391.093718466961</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="W10" t="n">
-        <v>1101.67654843</v>
+        <v>1134.594421205412</v>
       </c>
       <c r="X10" t="n">
-        <v>1100.395221039445</v>
+        <v>1134.594421205412</v>
       </c>
       <c r="Y10" t="n">
-        <v>879.6026418959145</v>
+        <v>978.4591041917437</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,61 +5029,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637306</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890282</v>
+        <v>680.0291294438167</v>
       </c>
       <c r="N12" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>956.9553291057244</v>
+        <v>869.9745311434721</v>
       </c>
       <c r="C13" t="n">
-        <v>788.0191461778176</v>
+        <v>701.0383482155652</v>
       </c>
       <c r="D13" t="n">
-        <v>637.9025067654818</v>
+        <v>550.9217088032294</v>
       </c>
       <c r="E13" t="n">
-        <v>489.9894131830887</v>
+        <v>403.0086152208363</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2386.68615516219</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2203.831320817094</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="T13" t="n">
-        <v>1984.229855840035</v>
+        <v>2044.506784258107</v>
       </c>
       <c r="U13" t="n">
-        <v>1695.154629184233</v>
+        <v>2044.506784258107</v>
       </c>
       <c r="V13" t="n">
-        <v>1695.154629184233</v>
+        <v>1789.82229605222</v>
       </c>
       <c r="W13" t="n">
-        <v>1405.737459147272</v>
+        <v>1500.405126015259</v>
       </c>
       <c r="X13" t="n">
-        <v>1177.747908249255</v>
+        <v>1272.415575117242</v>
       </c>
       <c r="Y13" t="n">
-        <v>956.9553291057244</v>
+        <v>1051.622995973712</v>
       </c>
     </row>
     <row r="14">
@@ -5270,13 +5272,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075809</v>
@@ -5285,40 +5287,40 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L15" t="n">
-        <v>315.9123021921482</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>913.2907898187001</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1540.888753373307</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>2092.798483612594</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P15" t="n">
         <v>2516.421633107662</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>633.4413279836774</v>
+        <v>580.8993044876697</v>
       </c>
       <c r="C16" t="n">
-        <v>464.5051450557705</v>
+        <v>411.9631215597628</v>
       </c>
       <c r="D16" t="n">
-        <v>464.5051450557705</v>
+        <v>261.8464821474271</v>
       </c>
       <c r="E16" t="n">
-        <v>464.5051450557705</v>
+        <v>113.933388565034</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258107</v>
       </c>
       <c r="U16" t="n">
-        <v>1807.973581098312</v>
+        <v>1755.431557602305</v>
       </c>
       <c r="V16" t="n">
-        <v>1553.289092892425</v>
+        <v>1500.747069396418</v>
       </c>
       <c r="W16" t="n">
-        <v>1263.871922855465</v>
+        <v>1211.329899359457</v>
       </c>
       <c r="X16" t="n">
-        <v>1035.882371957447</v>
+        <v>983.3403484614396</v>
       </c>
       <c r="Y16" t="n">
-        <v>815.0897928139171</v>
+        <v>762.5477693179095</v>
       </c>
     </row>
     <row r="17">
@@ -5489,37 +5491,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192559</v>
+        <v>95.34095638192383</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111695</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075804</v>
+        <v>852.852361107579</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014778</v>
@@ -5531,34 +5533,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5586,28 +5588,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>695.5020655703146</v>
+        <v>580.8993044876697</v>
       </c>
       <c r="C19" t="n">
-        <v>526.5658826424079</v>
+        <v>411.9631215597628</v>
       </c>
       <c r="D19" t="n">
-        <v>526.5658826424079</v>
+        <v>411.9631215597628</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310019</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330917</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038348</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797751</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.15024091081</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570819</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853363</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832665</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487569</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510511</v>
+        <v>2044.506784258107</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854709</v>
+        <v>1755.431557602305</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648822</v>
+        <v>1500.747069396418</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611862</v>
+        <v>1211.329899359457</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138445</v>
+        <v>983.3403484614396</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703146</v>
+        <v>762.5477693179095</v>
       </c>
     </row>
     <row r="20">
@@ -5744,16 +5746,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5786,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3081.170977615665</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C21" t="n">
-        <v>2906.717948334538</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D21" t="n">
-        <v>2757.783538673287</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>2598.546083667831</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
-        <v>2452.011525694716</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G21" t="n">
-        <v>2316.252859740624</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>2231.58852738579</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>2233.355914590557</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>2383.002557118212</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>2383.002557118212</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>2878.328163333971</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M21" t="n">
-        <v>3406.350378974036</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N21" t="n">
-        <v>4033.948342528643</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O21" t="n">
-        <v>4033.948342528643</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P21" t="n">
-        <v>4457.571492023711</v>
+        <v>2443.97263649114</v>
       </c>
       <c r="Q21" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S21" t="n">
-        <v>4572.622366301205</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T21" t="n">
-        <v>4382.415660022979</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U21" t="n">
-        <v>4154.387578566164</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V21" t="n">
-        <v>3919.235470334421</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W21" t="n">
-        <v>3664.99811360622</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X21" t="n">
-        <v>3457.146613400687</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y21" t="n">
-        <v>3249.386314635733</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>874.8686257536369</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C22" t="n">
-        <v>705.9324428257303</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8158034133947</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310019</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330917</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038348</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797751</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570819</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853363</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832665</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2269.002343845329</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>2049.40087886827</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>2049.40087886827</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1794.716390662384</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1505.299220625423</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>1277.309669727406</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="Y22" t="n">
-        <v>1056.517090583876</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6020,19 +6022,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C24" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D24" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F24" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G24" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="J24" t="n">
-        <v>95.58405025273903</v>
+        <v>2381.235169913446</v>
       </c>
       <c r="K24" t="n">
-        <v>95.58405025273903</v>
+        <v>2715.159942084666</v>
       </c>
       <c r="L24" t="n">
-        <v>590.9096564684977</v>
+        <v>2913.946970978148</v>
       </c>
       <c r="M24" t="n">
-        <v>1188.28814409505</v>
+        <v>3511.3254586047</v>
       </c>
       <c r="N24" t="n">
-        <v>1815.886107649656</v>
+        <v>4138.923422159307</v>
       </c>
       <c r="O24" t="n">
-        <v>2367.795837888943</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R24" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S24" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T24" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U24" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V24" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W24" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X24" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y24" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="25">
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>916.2946447138411</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C25" t="n">
-        <v>916.2946447138411</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232838</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y25" t="n">
-        <v>916.2946447138411</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="26">
@@ -6215,37 +6217,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6300,31 +6302,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1520.445529061503</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N27" t="n">
-        <v>2129.438138565707</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2757.723669558405</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C28" t="n">
-        <v>2757.723669558405</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D28" t="n">
-        <v>2607.607030146069</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E28" t="n">
-        <v>2607.607030146069</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
-        <v>2607.607030146069</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>2440.410930860949</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.979202260897</v>
       </c>
       <c r="V28" t="n">
-        <v>3677.571434467152</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="W28" t="n">
-        <v>3388.154264430192</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X28" t="n">
-        <v>3160.164713532175</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y28" t="n">
-        <v>2939.372134388645</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="29">
@@ -6449,16 +6451,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
@@ -6470,13 +6472,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C30" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D30" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G30" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>2231.588527385791</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>2231.588527385791</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L30" t="n">
-        <v>2726.91413360155</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M30" t="n">
-        <v>3324.292621228102</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N30" t="n">
-        <v>3715.300272664238</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O30" t="n">
-        <v>4267.210002903525</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P30" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S30" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T30" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U30" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V30" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W30" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X30" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y30" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="31">
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3192.420589669523</v>
+        <v>2824.769373306003</v>
       </c>
       <c r="C31" t="n">
-        <v>3023.484406741616</v>
+        <v>2655.833190378096</v>
       </c>
       <c r="D31" t="n">
-        <v>3023.484406741616</v>
+        <v>2655.833190378096</v>
       </c>
       <c r="E31" t="n">
-        <v>2875.571313159223</v>
+        <v>2655.833190378096</v>
       </c>
       <c r="F31" t="n">
-        <v>2728.681365661313</v>
+        <v>2508.943242880186</v>
       </c>
       <c r="G31" t="n">
-        <v>2561.485266376193</v>
+        <v>2479.398563024106</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.773435218391</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="I31" t="n">
         <v>2337.686731866304</v>
@@ -6643,28 +6645,28 @@
         <v>4690.833152398593</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650995</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S31" t="n">
-        <v>4440.9326143059</v>
+        <v>4507.978318053498</v>
       </c>
       <c r="T31" t="n">
-        <v>4246.390053711702</v>
+        <v>4288.376853076439</v>
       </c>
       <c r="U31" t="n">
-        <v>3957.3148270559</v>
+        <v>3999.301626420637</v>
       </c>
       <c r="V31" t="n">
-        <v>3702.630338850014</v>
+        <v>3744.61713821475</v>
       </c>
       <c r="W31" t="n">
-        <v>3413.213168813053</v>
+        <v>3455.19996817779</v>
       </c>
       <c r="X31" t="n">
-        <v>3413.213168813053</v>
+        <v>3227.210417279773</v>
       </c>
       <c r="Y31" t="n">
-        <v>3192.420589669523</v>
+        <v>3006.417838136243</v>
       </c>
     </row>
     <row r="32">
@@ -6683,10 +6685,10 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6701,25 +6703,25 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6780,25 +6782,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>913.2907898187001</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1540.888753373307</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O33" t="n">
-        <v>2092.798483612594</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3047.140839595364</v>
+        <v>1089.57599612053</v>
       </c>
       <c r="C34" t="n">
-        <v>2878.204656667458</v>
+        <v>920.6398131926233</v>
       </c>
       <c r="D34" t="n">
-        <v>2734.882628085903</v>
+        <v>770.5231737802875</v>
       </c>
       <c r="E34" t="n">
-        <v>2586.96953450351</v>
+        <v>622.6100801978944</v>
       </c>
       <c r="F34" t="n">
-        <v>2586.96953450351</v>
+        <v>475.720132699984</v>
       </c>
       <c r="G34" t="n">
-        <v>2419.77343521839</v>
+        <v>308.5240334148639</v>
       </c>
       <c r="H34" t="n">
-        <v>2419.77343521839</v>
+        <v>166.812202257062</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>4440.932614305899</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>4221.33114932884</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U34" t="n">
-        <v>3932.255922673038</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="V34" t="n">
-        <v>3677.571434467151</v>
+        <v>2009.423761029278</v>
       </c>
       <c r="W34" t="n">
-        <v>3677.571434467151</v>
+        <v>1720.006590992317</v>
       </c>
       <c r="X34" t="n">
-        <v>3449.581883569134</v>
+        <v>1492.0170400943</v>
       </c>
       <c r="Y34" t="n">
-        <v>3228.789304425604</v>
+        <v>1271.22446095077</v>
       </c>
     </row>
     <row r="35">
@@ -6917,28 +6919,28 @@
         <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168604</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332386</v>
@@ -7014,25 +7016,25 @@
         <v>93.81666304797186</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>904.4616873845483</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1501.8401750111</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N36" t="n">
-        <v>2129.438138565707</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3173.601046153951</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C37" t="n">
-        <v>3173.601046153951</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D37" t="n">
-        <v>3023.484406741615</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E37" t="n">
-        <v>2875.571313159222</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F37" t="n">
-        <v>2728.681365661312</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G37" t="n">
-        <v>2561.485266376192</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>2419.77343521839</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>4440.932614305899</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T37" t="n">
-        <v>4221.33114932884</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U37" t="n">
-        <v>3932.255922673038</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V37" t="n">
-        <v>3677.571434467151</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W37" t="n">
-        <v>3576.042090127721</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X37" t="n">
-        <v>3576.042090127721</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y37" t="n">
-        <v>3355.249510984191</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
         <v>1948.813509611463</v>
@@ -7160,16 +7162,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
@@ -7187,37 +7189,37 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7245,31 +7247,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K39" t="n">
-        <v>95.58405025273903</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L39" t="n">
-        <v>590.9096564684977</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969308</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3301.483384420096</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C40" t="n">
-        <v>3132.547201492189</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D40" t="n">
-        <v>2982.430562079854</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="E40" t="n">
-        <v>2834.517468497461</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F40" t="n">
-        <v>2728.681365661309</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
-        <v>2561.48526637619</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>2419.773435218388</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
-        <v>2337.686731866302</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
-        <v>2417.922750296626</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>4623.787448650996</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>4440.932614305901</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T40" t="n">
-        <v>4221.331149328842</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U40" t="n">
-        <v>4221.331149328842</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V40" t="n">
-        <v>4221.331149328842</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W40" t="n">
-        <v>3931.913979291882</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X40" t="n">
-        <v>3703.924428393865</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y40" t="n">
-        <v>3483.131849250335</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="41">
@@ -7397,22 +7399,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C42" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D42" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G42" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>2233.355914590558</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>2383.002557118213</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>2716.927329289434</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>3212.252935505192</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>3511.3254586047</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>4138.923422159307</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O42" t="n">
-        <v>4690.833152398593</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P42" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S42" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T42" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U42" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V42" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W42" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X42" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y42" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="43">
@@ -7543,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>950.7540666811333</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>781.8178837532264</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7594,25 +7596,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.278523222742</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2159.677058245683</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1870.601831589881</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1870.601831589881</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1581.18466155292</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1353.195110654903</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1132.402531511373</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7661,7 +7663,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7682,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7722,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>924.8344286397182</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M45" t="n">
-        <v>924.8344286397182</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N45" t="n">
-        <v>1552.432392194325</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O45" t="n">
-        <v>2104.342122433612</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2885.716205056543</v>
+        <v>2757.723669558405</v>
       </c>
       <c r="C46" t="n">
-        <v>2716.780022128637</v>
+        <v>2588.787486630498</v>
       </c>
       <c r="D46" t="n">
-        <v>2566.663382716301</v>
+        <v>2588.787486630498</v>
       </c>
       <c r="E46" t="n">
-        <v>2566.663382716301</v>
+        <v>2588.787486630498</v>
       </c>
       <c r="F46" t="n">
-        <v>2419.773435218391</v>
+        <v>2588.787486630498</v>
       </c>
       <c r="G46" t="n">
-        <v>2419.773435218391</v>
+        <v>2479.398563024106</v>
       </c>
       <c r="H46" t="n">
-        <v>2419.773435218391</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="I46" t="n">
         <v>2337.686731866304</v>
@@ -7837,19 +7839,19 @@
         <v>4221.331149328841</v>
       </c>
       <c r="U46" t="n">
-        <v>4060.248458171178</v>
+        <v>3932.255922673039</v>
       </c>
       <c r="V46" t="n">
-        <v>3805.563969965291</v>
+        <v>3677.571434467152</v>
       </c>
       <c r="W46" t="n">
-        <v>3516.14679992833</v>
+        <v>3388.154264430192</v>
       </c>
       <c r="X46" t="n">
-        <v>3288.157249030313</v>
+        <v>3160.164713532175</v>
       </c>
       <c r="Y46" t="n">
-        <v>3067.364669886783</v>
+        <v>2939.372134388645</v>
       </c>
     </row>
   </sheetData>
@@ -8052,7 +8054,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -8067,10 +8069,10 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>249.3877325071649</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>255.5240487471573</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -8079,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8289,10 +8291,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8307,16 +8309,16 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>305.1601501039158</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>73.66059580999763</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23413,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23425,16 +23427,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.1398665102882</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>6.701087576231558</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,10 +23472,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23656,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>125.5054897610398</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>118.3918499711701</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23887,16 +23889,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819371</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182121</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>28.95742156327694</v>
+        <v>142.4141550350963</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23905,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462237</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856531</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24136,16 +24138,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462237</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856531</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>71.22040037418212</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892439</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24190,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>60.19363748756501</v>
       </c>
     </row>
     <row r="23">
@@ -24361,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>13.30196929556061</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24376,13 +24378,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>125.5054897610405</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24430,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24601,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24616,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>119.8635921600911</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24655,13 +24657,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>0.5874149221289713</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24844,19 +24846,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>136.2749052347504</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>24.80831533903293</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24901,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25078,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>6.726664722473316</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>9.00025250156628</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,22 +25122,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25312,16 +25314,16 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>39.70888054695394</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25357,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25372,10 +25374,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>186.0089474405546</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25552,13 +25554,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>103.9026168854319</v>
       </c>
       <c r="F40" t="n">
-        <v>40.64330621514057</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25597,16 +25599,16 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892439</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25789,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>180.3938179578225</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25843,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26026,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>57.22910392194129</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26077,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>126.7126101431575</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>768002.8526346347</v>
+        <v>776321.5511361338</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>768002.8526346347</v>
+        <v>776321.5511361338</v>
       </c>
     </row>
     <row r="4">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>755149.8202234283</v>
+        <v>755149.8202234281</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>755149.8202234283</v>
+        <v>755149.8202234282</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>755149.8202234282</v>
+        <v>755149.8202234281</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>755149.8202234283</v>
+        <v>755149.8202234282</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>755149.8202234282</v>
+        <v>755149.8202234283</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>755149.8202234282</v>
+        <v>755149.8202234283</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>755149.8202234283</v>
+        <v>755149.8202234282</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>755149.8202234282</v>
+        <v>755149.8202234281</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>755149.8202234281</v>
+        <v>755149.8202234282</v>
       </c>
     </row>
   </sheetData>
@@ -26311,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.4601380341</v>
+        <v>677359.4601380337</v>
       </c>
       <c r="C2" t="n">
-        <v>677359.4601380338</v>
+        <v>677359.4601380337</v>
       </c>
       <c r="D2" t="n">
         <v>677359.4601380336</v>
       </c>
       <c r="E2" t="n">
-        <v>665895.9447442552</v>
+        <v>665895.9447442548</v>
       </c>
       <c r="F2" t="n">
-        <v>665895.9447442548</v>
+        <v>665895.9447442549</v>
       </c>
       <c r="G2" t="n">
         <v>665895.9447442549</v>
       </c>
       <c r="H2" t="n">
-        <v>665895.9447442554</v>
+        <v>665895.9447442547</v>
       </c>
       <c r="I2" t="n">
-        <v>665895.9447442546</v>
+        <v>665895.944744255</v>
       </c>
       <c r="J2" t="n">
         <v>665895.9447442548</v>
@@ -26341,19 +26343,19 @@
         <v>665895.9447442548</v>
       </c>
       <c r="L2" t="n">
+        <v>665895.9447442549</v>
+      </c>
+      <c r="M2" t="n">
+        <v>665895.9447442548</v>
+      </c>
+      <c r="N2" t="n">
+        <v>665895.9447442548</v>
+      </c>
+      <c r="O2" t="n">
         <v>665895.9447442547</v>
       </c>
-      <c r="M2" t="n">
-        <v>665895.9447442543</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>665895.9447442549</v>
-      </c>
-      <c r="O2" t="n">
-        <v>665895.9447442548</v>
-      </c>
-      <c r="P2" t="n">
-        <v>665895.9447442553</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>192627.140440338</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073549</v>
+        <v>325412.4618073556</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>48293.97000819074</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.0279355119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>88524.23512810786</v>
+        <v>136726.2736921025</v>
       </c>
       <c r="C4" t="n">
-        <v>88524.23512810786</v>
+        <v>136726.2736921025</v>
       </c>
       <c r="D4" t="n">
         <v>88524.23512810784</v>
       </c>
       <c r="E4" t="n">
+        <v>9337.200356756544</v>
+      </c>
+      <c r="F4" t="n">
+        <v>9337.200356756592</v>
+      </c>
+      <c r="G4" t="n">
+        <v>9337.200356756592</v>
+      </c>
+      <c r="H4" t="n">
         <v>9337.20035675659</v>
-      </c>
-      <c r="F4" t="n">
-        <v>9337.20035675659</v>
-      </c>
-      <c r="G4" t="n">
-        <v>9337.20035675681</v>
-      </c>
-      <c r="H4" t="n">
-        <v>9337.200356756664</v>
       </c>
       <c r="I4" t="n">
         <v>9337.20035675659</v>
@@ -26442,22 +26444,22 @@
         <v>9337.20035675659</v>
       </c>
       <c r="K4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="L4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756635</v>
       </c>
       <c r="M4" t="n">
-        <v>9337.200356756643</v>
+        <v>9337.200356756653</v>
       </c>
       <c r="N4" t="n">
-        <v>9337.200356756692</v>
+        <v>9337.200356756653</v>
       </c>
       <c r="O4" t="n">
         <v>9337.20035675659</v>
       </c>
       <c r="P4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
     </row>
     <row r="5">
@@ -26467,16 +26469,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-847843.4612790596</v>
+        <v>-667056.3695698329</v>
       </c>
       <c r="C6" t="n">
-        <v>480901.2844485327</v>
+        <v>447695.4140060865</v>
       </c>
       <c r="D6" t="n">
-        <v>480901.2844485325</v>
+        <v>288274.1440081944</v>
       </c>
       <c r="E6" t="n">
-        <v>230023.7527562365</v>
+        <v>230023.7527562355</v>
       </c>
       <c r="F6" t="n">
         <v>555436.2145635912</v>
       </c>
       <c r="G6" t="n">
-        <v>555436.2145635911</v>
+        <v>555436.2145635912</v>
       </c>
       <c r="H6" t="n">
-        <v>555436.2145635916</v>
+        <v>555436.2145635914</v>
       </c>
       <c r="I6" t="n">
-        <v>555436.2145635911</v>
+        <v>555436.2145635914</v>
       </c>
       <c r="J6" t="n">
-        <v>337905.0121663136</v>
+        <v>387831.0367536086</v>
       </c>
       <c r="K6" t="n">
         <v>555436.2145635912</v>
       </c>
       <c r="L6" t="n">
-        <v>555436.2145635911</v>
+        <v>507142.2445554005</v>
       </c>
       <c r="M6" t="n">
-        <v>470381.1866280788</v>
+        <v>470381.1866280792</v>
       </c>
       <c r="N6" t="n">
         <v>555436.2145635911</v>
       </c>
       <c r="O6" t="n">
-        <v>555436.2145635914</v>
+        <v>555436.2145635911</v>
       </c>
       <c r="P6" t="n">
-        <v>555436.2145635916</v>
+        <v>555436.2145635913</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>934.0648921175391</v>
+      </c>
+      <c r="C3" t="n">
+        <v>934.0648921175391</v>
+      </c>
+      <c r="D3" t="n">
         <v>1089.776700593298</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1089.776700593298</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>155.7118084757592</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>190.8166233022541</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>190.8166233022541</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,13 +27381,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>302.0150290037625</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27427,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27436,16 +27438,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>203.5983603104237</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,16 +27536,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27552,7 +27554,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27582,25 +27584,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>171.0821577870919</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>51.89346412260804</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27616,13 +27618,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>174.6770236006356</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>155.9384550985496</v>
       </c>
     </row>
     <row r="6">
@@ -27789,7 +27791,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27819,16 +27821,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27837,10 +27839,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>80.85095794181444</v>
       </c>
       <c r="Y7" t="n">
-        <v>61.36518964614109</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,7 +27855,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27865,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>2.309284925455017</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>87.50720871381796</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28014,22 +28016,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28062,22 +28064,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>224.4411412723873</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>64.01068950856282</v>
       </c>
     </row>
     <row r="11">
@@ -28150,7 +28152,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>-1.023181539494544e-12</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -29803,7 +29805,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>9.663381206337363e-13</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -29989,7 +29991,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -30223,7 +30225,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31522,40 +31524,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31674,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>581.3243739860818</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>461.1007071927452</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,34 +32068,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L15" t="n">
-        <v>362.8934092184361</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>363.5371514786837</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32102,13 +32104,13 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067228</v>
+        <v>212.015579806721</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,34 +32305,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565758</v>
       </c>
       <c r="P18" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32339,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32546,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32555,22 +32557,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>675.489807295821</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>250.1723312270667</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32704,7 +32706,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
@@ -32783,16 +32785,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>339.3493584601589</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32804,13 +32806,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>284.1014732918236</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,10 +33022,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
@@ -33032,22 +33034,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>746.4857620875799</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,22 +33259,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>246.9596973201446</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>526.2989357561987</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
@@ -33500,28 +33502,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>318.3985571819322</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>230.1272937575231</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33655,7 +33657,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663279</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
         <v>699.5441750817575</v>
@@ -33734,28 +33736,28 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0899880277084</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>340.4395077511235</v>
       </c>
       <c r="P36" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33916,7 +33918,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -33974,13 +33976,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>324.9782573297445</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>269.1634560719508</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
@@ -33989,10 +33991,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34217,16 +34219,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>444.2274915982887</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>593.5422977113961</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34381,7 +34383,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
         <v>790.8204499236507</v>
@@ -34390,7 +34392,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34442,16 +34444,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>279.2419622547062</v>
       </c>
       <c r="M45" t="n">
         <v>142.1340339220183</v>
@@ -34463,13 +34465,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>314.5984986256103</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>590.9487307432803</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>323.3401249335299</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>439.1903400640635</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>318.5044627483008</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L15" t="n">
-        <v>224.339029438562</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>220.9409070342392</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236316905</v>
+        <v>1.539690236315111</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121313</v>
       </c>
       <c r="P18" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36039,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295359</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096352</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899077</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060457</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066252</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998986</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36130,7 +36132,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
         <v>696.488651224316</v>
@@ -36194,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36203,22 +36205,22 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>533.3557733738027</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>110.1905571410452</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295359</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096352</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899077</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060457</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066252</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998986</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36352,7 +36354,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
@@ -36361,7 +36363,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
         <v>735.3001107902948</v>
@@ -36431,16 +36433,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>200.7949786802847</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36452,13 +36454,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>150.1270658774933</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36668,10 +36670,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
@@ -36680,22 +36682,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>615.1440500042467</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36841,7 +36843,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
         <v>696.488651224316</v>
@@ -36905,22 +36907,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>108.4053175402704</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>394.9572236728654</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
@@ -37148,28 +37150,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>176.2645232599139</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>98.78558167418976</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37303,7 +37305,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396416</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
         <v>479.454324036777</v>
@@ -37382,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>481.5356082478342</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>197.843263306679</v>
       </c>
       <c r="P36" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37564,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,13 +37624,13 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>187.1368183553855</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>127.0294221499325</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
@@ -37637,10 +37639,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295367</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096353</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191317</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010455</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899077</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060457</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
-        <v>295.6317733066252</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998987</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37789,7 +37791,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
         <v>696.488651224316</v>
@@ -37865,16 +37867,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>302.0934576762704</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>462.2005856280628</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38029,7 +38031,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
@@ -38038,7 +38040,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,16 +38092,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>140.6875824748321</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -38111,13 +38113,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>180.6240912112801</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_14_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_14_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2847546.883495864</v>
+        <v>2843451.241991101</v>
       </c>
     </row>
     <row r="7">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -673,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>160.9222939728191</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,16 +709,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>124.1538981597112</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.3066000448042</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,19 +867,19 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>171.1971464172148</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>200.24417920122</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -907,10 +907,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>55.32302882852935</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -952,19 +952,19 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>230.2994835575039</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1053,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1113,13 +1113,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>261.7732822621412</v>
       </c>
       <c r="X7" t="n">
-        <v>144.8586974472227</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>408.6124407279984</v>
+        <v>242.8528437613028</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1195,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -1347,19 +1347,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>69.11451899103581</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>154.573963843532</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1378,7 +1378,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722626</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1432,7 +1432,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717414</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1539,13 +1539,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2811815126429997</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>19.91555826189108</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1584,7 +1584,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1666,7 +1666,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1770,19 +1770,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>19.91555826189146</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1906,7 +1906,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2010,16 +2010,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>4.019807611472922</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2083,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2143,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174139</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2238,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>60.42721558712974</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2253,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2304,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>158.3910158645298</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,16 +2481,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>103.1686991936197</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2532,7 +2532,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>160.6789846282037</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2557,7 +2557,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2718,7 +2718,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2769,13 +2769,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>285.5970594671152</v>
+        <v>228.9553704673023</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2961,10 +2961,10 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>29.24923305751846</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3043,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881276</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3198,16 +3198,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>72.26558381699925</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>170.9457618790577</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3271,7 +3271,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206816</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3429,7 +3429,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>108.9065924712584</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3441,10 +3441,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>100.5858322992705</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3505,7 +3505,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>42.53134576113725</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>51.36569740310382</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3745,7 +3745,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3906,16 +3906,16 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>102.1557845699818</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4140,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4149,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>108.2950343703276</v>
+        <v>95.81917536083697</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4188,7 +4188,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1248.370234799863</v>
+        <v>993.7429799877386</v>
       </c>
       <c r="C2" t="n">
-        <v>1248.370234799863</v>
+        <v>624.780463047327</v>
       </c>
       <c r="D2" t="n">
-        <v>1248.370234799863</v>
+        <v>624.780463047327</v>
       </c>
       <c r="E2" t="n">
-        <v>1248.370234799863</v>
+        <v>624.780463047327</v>
       </c>
       <c r="F2" t="n">
-        <v>837.3843300102556</v>
+        <v>213.7945582577194</v>
       </c>
       <c r="G2" t="n">
-        <v>421.6795797345444</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I2" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T2" t="n">
-        <v>2353.59368700598</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="U2" t="n">
-        <v>2100.012626270159</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="V2" t="n">
-        <v>1974.604648331057</v>
+        <v>2106.577233583054</v>
       </c>
       <c r="W2" t="n">
-        <v>1621.835993060943</v>
+        <v>1753.80857831294</v>
       </c>
       <c r="X2" t="n">
-        <v>1248.370234799863</v>
+        <v>1380.34282005186</v>
       </c>
       <c r="Y2" t="n">
-        <v>1248.370234799863</v>
+        <v>1380.34282005186</v>
       </c>
     </row>
     <row r="3">
@@ -4415,22 +4415,22 @@
         <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625329</v>
+        <v>932.4978103100997</v>
       </c>
       <c r="M3" t="n">
-        <v>956.284402521753</v>
+        <v>1295.75982926932</v>
       </c>
       <c r="N3" t="n">
-        <v>1590.463386300791</v>
+        <v>1683.044957866265</v>
       </c>
       <c r="O3" t="n">
-        <v>2175.502629736639</v>
+        <v>2015.115393042426</v>
       </c>
       <c r="P3" t="n">
-        <v>2422.685363568936</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>473.0014915127243</v>
+        <v>833.0891146802707</v>
       </c>
       <c r="C4" t="n">
-        <v>473.0014915127243</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D4" t="n">
-        <v>473.0014915127243</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E4" t="n">
-        <v>325.0883979303312</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F4" t="n">
-        <v>325.0883979303312</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G4" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I4" t="n">
         <v>51.2467865680031</v>
@@ -4515,25 +4515,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>1463.519709552058</v>
       </c>
       <c r="T4" t="n">
-        <v>1413.467639269232</v>
+        <v>1463.519709552058</v>
       </c>
       <c r="U4" t="n">
-        <v>1413.467639269232</v>
+        <v>1463.519709552058</v>
       </c>
       <c r="V4" t="n">
-        <v>1211.200791591232</v>
+        <v>1463.519709552058</v>
       </c>
       <c r="W4" t="n">
-        <v>921.7836215542718</v>
+        <v>1463.519709552058</v>
       </c>
       <c r="X4" t="n">
-        <v>693.7940706562545</v>
+        <v>1235.53015865404</v>
       </c>
       <c r="Y4" t="n">
-        <v>473.0014915127243</v>
+        <v>1014.73757951051</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1236.203140240072</v>
+        <v>472.3398332255019</v>
       </c>
       <c r="C5" t="n">
-        <v>1236.203140240072</v>
+        <v>472.3398332255019</v>
       </c>
       <c r="D5" t="n">
-        <v>877.9374416333219</v>
+        <v>114.0741346187514</v>
       </c>
       <c r="E5" t="n">
-        <v>877.9374416333219</v>
+        <v>114.0741346187514</v>
       </c>
       <c r="F5" t="n">
-        <v>466.9515368437143</v>
+        <v>107.1286338695479</v>
       </c>
       <c r="G5" t="n">
         <v>51.2467865680031</v>
@@ -4570,10 +4570,10 @@
         <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872913</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4600,19 +4600,19 @@
         <v>2228.89447953245</v>
       </c>
       <c r="U5" t="n">
-        <v>2228.89447953245</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="V5" t="n">
-        <v>2228.89447953245</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="W5" t="n">
-        <v>2228.89447953245</v>
+        <v>1622.544763526515</v>
       </c>
       <c r="X5" t="n">
-        <v>1855.42872127137</v>
+        <v>1249.079005265435</v>
       </c>
       <c r="Y5" t="n">
-        <v>1622.802980304194</v>
+        <v>858.9396732896237</v>
       </c>
     </row>
     <row r="6">
@@ -4622,10 +4622,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
         <v>607.9167021542605</v>
@@ -4634,10 +4634,10 @@
         <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
         <v>71.67401812057901</v>
@@ -4646,22 +4646,22 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>423.148951518066</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L6" t="n">
-        <v>717.8525085495377</v>
+        <v>854.8429682049857</v>
       </c>
       <c r="M6" t="n">
-        <v>1081.114527508758</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N6" t="n">
-        <v>1468.399656105703</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O6" t="n">
-        <v>2102.578639884741</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P6" t="n">
         <v>2422.685363568936</v>
@@ -4685,7 +4685,7 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
         <v>1307.279776881661</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1087.683159487371</v>
+        <v>369.3498906720603</v>
       </c>
       <c r="C7" t="n">
-        <v>918.7469765594642</v>
+        <v>369.3498906720603</v>
       </c>
       <c r="D7" t="n">
-        <v>768.6303371471284</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="E7" t="n">
-        <v>620.7172435647353</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="F7" t="n">
-        <v>473.8272960668249</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G7" t="n">
-        <v>305.8408313751036</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I7" t="n">
         <v>51.2467865680031</v>
@@ -4749,28 +4749,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T7" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="U7" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="V7" t="n">
-        <v>1636.446120074497</v>
+        <v>1082.549477544053</v>
       </c>
       <c r="W7" t="n">
-        <v>1636.446120074497</v>
+        <v>818.1320207136077</v>
       </c>
       <c r="X7" t="n">
-        <v>1490.124203461141</v>
+        <v>590.1424698155904</v>
       </c>
       <c r="Y7" t="n">
-        <v>1269.331624317611</v>
+        <v>369.3498906720603</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2003.254328486388</v>
+        <v>2175.400891308156</v>
       </c>
       <c r="C8" t="n">
-        <v>1634.291811545976</v>
+        <v>1806.438374367744</v>
       </c>
       <c r="D8" t="n">
-        <v>1276.026112939226</v>
+        <v>1448.172675760994</v>
       </c>
       <c r="E8" t="n">
-        <v>890.2378603409813</v>
+        <v>1062.38442316275</v>
       </c>
       <c r="F8" t="n">
-        <v>479.2519555513738</v>
+        <v>651.3985183731422</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218343</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993394</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U8" t="n">
-        <v>3119.628073993394</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V8" t="n">
-        <v>3119.628073993394</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W8" t="n">
-        <v>2766.859418723279</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="X8" t="n">
-        <v>2393.393660462199</v>
+        <v>2952.14006334809</v>
       </c>
       <c r="Y8" t="n">
-        <v>2003.254328486388</v>
+        <v>2562.000731372278</v>
       </c>
     </row>
     <row r="9">
@@ -4874,22 +4874,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
         <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4938,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>796.8106393615039</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="C10" t="n">
-        <v>627.8744564335971</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="D10" t="n">
-        <v>477.7578170212613</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E10" t="n">
-        <v>477.7578170212613</v>
+        <v>213.4020639300937</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4983,10 +4983,10 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S10" t="n">
         <v>1645.778206672847</v>
@@ -4995,19 +4995,19 @@
         <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1424.011591242373</v>
+        <v>1354.198945796882</v>
       </c>
       <c r="V10" t="n">
-        <v>1424.011591242373</v>
+        <v>1099.514457590995</v>
       </c>
       <c r="W10" t="n">
-        <v>1134.594421205412</v>
+        <v>810.0972875540343</v>
       </c>
       <c r="X10" t="n">
-        <v>1134.594421205412</v>
+        <v>582.107736656017</v>
       </c>
       <c r="Y10" t="n">
-        <v>978.4591041917437</v>
+        <v>361.3151575124868</v>
       </c>
     </row>
     <row r="11">
@@ -5017,67 +5017,67 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C11" t="n">
         <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
         <v>3467.980956852889</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>95.5840502527391</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803939</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>245.2306927803939</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L12" t="n">
-        <v>245.2306927803939</v>
+        <v>352.5519571452613</v>
       </c>
       <c r="M12" t="n">
-        <v>680.0291294438167</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>869.9745311434721</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C13" t="n">
-        <v>701.0383482155652</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D13" t="n">
-        <v>550.9217088032294</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E13" t="n">
-        <v>403.0086152208363</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5208,7 +5208,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570818</v>
@@ -5217,34 +5217,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235166</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258107</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U13" t="n">
-        <v>2044.506784258107</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V13" t="n">
-        <v>1789.82229605222</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W13" t="n">
-        <v>1500.405126015259</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X13" t="n">
-        <v>1272.415575117242</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y13" t="n">
-        <v>1051.622995973712</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="14">
@@ -5260,19 +5260,19 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
@@ -5281,46 +5281,46 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468473</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O15" t="n">
-        <v>2516.421633107662</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.8993044876697</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>411.9631215597628</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>261.8464821474271</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>113.933388565034</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797189</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797189</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235166</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258107</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602305</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396418</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359457</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614396</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.5477693179095</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5497,13 +5497,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5512,16 +5512,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192383</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111695</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.852361107579</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014778</v>
@@ -5530,7 +5530,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5554,10 +5554,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5591,22 +5591,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468473</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876697</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>411.9631215597628</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>411.9631215597628</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5673,52 +5673,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235166</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258107</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602305</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396418</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359457</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614396</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179095</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5746,49 +5746,49 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
         <v>3467.980956852888</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,31 +5825,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>869.6905094135296</v>
+        <v>634.4644740681601</v>
       </c>
       <c r="C22" t="n">
-        <v>700.7543264856228</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="D22" t="n">
-        <v>550.637687073287</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1211.329899359456</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>1051.338974243769</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5977,22 +5977,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6001,10 +6001,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C24" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D24" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G24" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>2715.159942084666</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>2913.946970978148</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>3511.3254586047</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>4138.923422159307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S24" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T24" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U24" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V24" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W24" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X24" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y24" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="25">
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797187</v>
+        <v>198.0274703142544</v>
       </c>
       <c r="G25" t="n">
         <v>93.81666304797187</v>
@@ -6147,52 +6147,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6205,7 +6205,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6214,61 +6214,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>803.8641191832229</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>634.927936255316</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.979202260897</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1434.29471405501</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1434.29471405501</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>1206.305163156993</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>985.5125840134626</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6451,25 +6451,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014778</v>
@@ -6539,25 +6539,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2824.769373306003</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>2655.833190378096</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D31" t="n">
-        <v>2655.833190378096</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E31" t="n">
-        <v>2655.833190378096</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F31" t="n">
-        <v>2508.943242880186</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
-        <v>2479.398563024106</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>4690.833152398593</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S31" t="n">
-        <v>4507.978318053498</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T31" t="n">
-        <v>4288.376853076439</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>3999.301626420637</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>3744.61713821475</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>3455.19996817779</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>3227.210417279773</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>3006.417838136243</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6679,7 +6679,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6688,61 +6688,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,31 +6773,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1767.889897446606</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1089.57599612053</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C34" t="n">
-        <v>920.6398131926233</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D34" t="n">
-        <v>770.5231737802875</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E34" t="n">
-        <v>622.6100801978944</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F34" t="n">
-        <v>475.720132699984</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G34" t="n">
-        <v>308.5240334148639</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H34" t="n">
-        <v>166.812202257062</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2264.108249235165</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U34" t="n">
-        <v>2264.108249235165</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V34" t="n">
-        <v>2009.423761029278</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W34" t="n">
-        <v>1720.006590992317</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X34" t="n">
-        <v>1492.0170400943</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y34" t="n">
-        <v>1271.22446095077</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="35">
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6925,22 +6925,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332386</v>
@@ -6955,34 +6955,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7010,31 +7010,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1700.311647517212</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>763.7541388327643</v>
+        <v>662.1522880254209</v>
       </c>
       <c r="C37" t="n">
-        <v>594.8179559048574</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429802</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429802</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H37" t="n">
         <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2345.361232772917</v>
       </c>
       <c r="T37" t="n">
-        <v>2227.361618603201</v>
+        <v>2125.759767795858</v>
       </c>
       <c r="U37" t="n">
-        <v>1938.286391947399</v>
+        <v>1836.684541140056</v>
       </c>
       <c r="V37" t="n">
-        <v>1683.601903741512</v>
+        <v>1582.000052934169</v>
       </c>
       <c r="W37" t="n">
-        <v>1394.184733704551</v>
+        <v>1292.582882897208</v>
       </c>
       <c r="X37" t="n">
-        <v>1166.195182806534</v>
+        <v>1064.593331999191</v>
       </c>
       <c r="Y37" t="n">
-        <v>945.402603663004</v>
+        <v>843.8007528556607</v>
       </c>
     </row>
     <row r="38">
@@ -7153,58 +7153,58 @@
         <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466572</v>
@@ -7247,25 +7247,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273902</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>696.7084350851671</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C40" t="n">
-        <v>527.7722521572603</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D40" t="n">
-        <v>527.7722521572603</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429802</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G40" t="n">
         <v>317.6151975578601</v>
@@ -7329,55 +7329,55 @@
         <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T40" t="n">
-        <v>2160.315914855604</v>
+        <v>2395.078540748843</v>
       </c>
       <c r="U40" t="n">
-        <v>1871.240688199802</v>
+        <v>2106.003314093041</v>
       </c>
       <c r="V40" t="n">
-        <v>1616.556199993915</v>
+        <v>1851.318825887154</v>
       </c>
       <c r="W40" t="n">
-        <v>1327.139029956954</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="X40" t="n">
-        <v>1099.149479058937</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y40" t="n">
-        <v>878.3568999154069</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="41">
@@ -7399,34 +7399,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7487,13 +7487,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7502,10 +7502,10 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7569,52 +7569,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7642,10 +7642,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111715</v>
@@ -7657,13 +7657,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7684,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7724,28 +7724,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>716.6687843969308</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2757.723669558405</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C46" t="n">
-        <v>2588.787486630498</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="D46" t="n">
-        <v>2588.787486630498</v>
+        <v>414.4022433768874</v>
       </c>
       <c r="E46" t="n">
-        <v>2588.787486630498</v>
+        <v>414.4022433768874</v>
       </c>
       <c r="F46" t="n">
-        <v>2588.787486630498</v>
+        <v>414.4022433768874</v>
       </c>
       <c r="G46" t="n">
-        <v>2479.398563024106</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>4221.331149328841</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U46" t="n">
-        <v>3932.255922673039</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V46" t="n">
-        <v>3677.571434467152</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W46" t="n">
-        <v>3388.154264430192</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X46" t="n">
-        <v>3160.164713532175</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y46" t="n">
-        <v>2939.372134388645</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
   </sheetData>
@@ -8063,25 +8063,25 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>342.9044714621886</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>249.3877325071649</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>255.5240487471573</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>186.5911984019046</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8309,10 +8309,10 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>305.1601501039158</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>73.66059580999763</v>
+        <v>240.4465442417438</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -9655,7 +9655,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>-7.72911902643801e-14</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -23427,16 +23427,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.1398665102882</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>46.45968844823058</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>125.5054897610398</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23898,19 +23898,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>142.4141550350963</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24126,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>119.4047645948075</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>60.19363748756501</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>62.35543909864911</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>125.5054897610405</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24606,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24657,13 +24657,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0.5874149221289713</v>
+        <v>57.22910392194188</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24849,16 +24849,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>136.2749052347504</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25086,16 +25086,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>9.00025250156628</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>46.45968844823054</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>39.70888054695394</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25329,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>80.44045370237413</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25554,16 +25554,16 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>103.9026168854319</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>166.0397529241845</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25794,19 +25794,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>63.36835372228705</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26037,13 +26037,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>57.22910392194129</v>
+        <v>69.70496293143188</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26076,7 +26076,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>755149.8202234282</v>
+        <v>755149.8202234281</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>755149.8202234282</v>
+        <v>755149.8202234281</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>755149.8202234282</v>
+        <v>755149.8202234281</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>755149.8202234282</v>
+        <v>755149.8202234281</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>755149.8202234283</v>
+        <v>755149.8202234281</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>755149.8202234283</v>
+        <v>755149.8202234282</v>
       </c>
     </row>
     <row r="14">
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>677359.460138034</v>
+      </c>
+      <c r="C2" t="n">
+        <v>677359.4601380336</v>
+      </c>
+      <c r="D2" t="n">
         <v>677359.4601380337</v>
       </c>
-      <c r="C2" t="n">
-        <v>677359.4601380337</v>
-      </c>
-      <c r="D2" t="n">
-        <v>677359.4601380336</v>
-      </c>
       <c r="E2" t="n">
-        <v>665895.9447442548</v>
+        <v>665895.944744255</v>
       </c>
       <c r="F2" t="n">
         <v>665895.9447442549</v>
       </c>
       <c r="G2" t="n">
+        <v>665895.9447442547</v>
+      </c>
+      <c r="H2" t="n">
+        <v>665895.944744255</v>
+      </c>
+      <c r="I2" t="n">
+        <v>665895.9447442552</v>
+      </c>
+      <c r="J2" t="n">
+        <v>665895.944744255</v>
+      </c>
+      <c r="K2" t="n">
         <v>665895.9447442549</v>
       </c>
-      <c r="H2" t="n">
-        <v>665895.9447442547</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="L2" t="n">
+        <v>665895.9447442553</v>
+      </c>
+      <c r="M2" t="n">
         <v>665895.944744255</v>
       </c>
-      <c r="J2" t="n">
-        <v>665895.9447442548</v>
-      </c>
-      <c r="K2" t="n">
-        <v>665895.9447442548</v>
-      </c>
-      <c r="L2" t="n">
-        <v>665895.9447442549</v>
-      </c>
-      <c r="M2" t="n">
-        <v>665895.9447442548</v>
-      </c>
       <c r="N2" t="n">
-        <v>665895.9447442548</v>
+        <v>665895.944744255</v>
       </c>
       <c r="O2" t="n">
-        <v>665895.9447442547</v>
+        <v>665895.9447442552</v>
       </c>
       <c r="P2" t="n">
         <v>665895.9447442549</v>
@@ -26371,7 +26371,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.140440338</v>
+        <v>192627.1404403377</v>
       </c>
       <c r="E3" t="n">
         <v>325412.4618073556</v>
@@ -26380,16 +26380,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.92547595343986e-11</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26417,28 +26417,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>136726.2736921025</v>
+        <v>136726.2736921026</v>
       </c>
       <c r="C4" t="n">
         <v>136726.2736921025</v>
       </c>
       <c r="D4" t="n">
-        <v>88524.23512810784</v>
+        <v>88524.23512810792</v>
       </c>
       <c r="E4" t="n">
-        <v>9337.200356756544</v>
+        <v>9337.200356756552</v>
       </c>
       <c r="F4" t="n">
         <v>9337.200356756592</v>
       </c>
       <c r="G4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="H4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.20035675655</v>
       </c>
       <c r="I4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756559</v>
       </c>
       <c r="J4" t="n">
         <v>9337.20035675659</v>
@@ -26447,19 +26447,19 @@
         <v>9337.200356756592</v>
       </c>
       <c r="L4" t="n">
-        <v>9337.200356756635</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="M4" t="n">
-        <v>9337.200356756653</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="N4" t="n">
-        <v>9337.200356756653</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="O4" t="n">
+        <v>9337.200356756592</v>
+      </c>
+      <c r="P4" t="n">
         <v>9337.20035675659</v>
-      </c>
-      <c r="P4" t="n">
-        <v>9337.200356756592</v>
       </c>
     </row>
     <row r="5">
@@ -26478,7 +26478,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-667056.3695698329</v>
+        <v>-667056.3695698327</v>
       </c>
       <c r="C6" t="n">
-        <v>447695.4140060865</v>
+        <v>447695.4140060864</v>
       </c>
       <c r="D6" t="n">
-        <v>288274.1440081944</v>
+        <v>288274.1440081948</v>
       </c>
       <c r="E6" t="n">
-        <v>230023.7527562355</v>
+        <v>229676.3735018788</v>
       </c>
       <c r="F6" t="n">
-        <v>555436.2145635912</v>
+        <v>555088.8353092346</v>
       </c>
       <c r="G6" t="n">
-        <v>555436.2145635912</v>
+        <v>555088.8353092341</v>
       </c>
       <c r="H6" t="n">
-        <v>555436.2145635914</v>
+        <v>555088.8353092342</v>
       </c>
       <c r="I6" t="n">
-        <v>555436.2145635914</v>
+        <v>555088.8353092346</v>
       </c>
       <c r="J6" t="n">
-        <v>387831.0367536086</v>
+        <v>387483.6574992518</v>
       </c>
       <c r="K6" t="n">
-        <v>555436.2145635912</v>
+        <v>555088.8353092342</v>
       </c>
       <c r="L6" t="n">
-        <v>507142.2445554005</v>
+        <v>506794.8653010439</v>
       </c>
       <c r="M6" t="n">
-        <v>470381.1866280792</v>
+        <v>470033.8073737225</v>
       </c>
       <c r="N6" t="n">
-        <v>555436.2145635911</v>
+        <v>555088.8353092344</v>
       </c>
       <c r="O6" t="n">
-        <v>555436.2145635911</v>
+        <v>555088.8353092346</v>
       </c>
       <c r="P6" t="n">
-        <v>555436.2145635913</v>
+        <v>555088.8353092344</v>
       </c>
     </row>
   </sheetData>
@@ -26709,10 +26709,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.656844941799826e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.656844941799826e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26795,31 +26795,31 @@
         <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26922,7 +26922,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.656844941799826e-14</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26965,7 +26965,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757592</v>
+        <v>155.711808475759</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483759</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022541</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.584832100039</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27159,7 +27159,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.656844941799826e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022541</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27393,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>250.6254088001348</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,16 +27429,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>203.5983603104237</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27536,19 +27536,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27557,7 +27557,7 @@
         <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27587,19 +27587,19 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>23.46531394452265</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>51.89346412260804</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27627,10 +27627,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>356.2246739444246</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
@@ -27672,19 +27672,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>155.9384550985496</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>220.7486959972119</v>
@@ -27833,13 +27833,13 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>24.74971607444985</v>
       </c>
       <c r="X7" t="n">
-        <v>80.85095794181444</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2.309284925455017</v>
+        <v>168.0688818921506</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,7 +27906,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -27915,7 +27915,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28010,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28067,19 +28067,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>217.0973192145771</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>64.01068950856282</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28098,7 +28098,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>-8.769077418225512e-13</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -28152,7 +28152,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>-1.023181539494544e-12</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -28863,7 +28863,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>-5.487218467042014e-13</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -29805,7 +29805,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>9.663381206337363e-13</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -29991,7 +29991,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -30225,7 +30225,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -31515,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31600,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31688,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31706,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,40 +31752,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
@@ -31794,7 +31794,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31846,28 +31846,28 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>246.9596973201444</v>
       </c>
       <c r="M12" t="n">
-        <v>581.3243739860818</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31934,7 +31934,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>414.6448185524877</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>363.5371514786837</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.015579806721</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565758</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,31 +32779,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>339.3493584601589</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,37 +33028,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>366.8427442359106</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,22 +33265,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>246.9596973201446</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>230.1272937575231</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>340.4395077511235</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,31 +33964,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>324.9782573297445</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,22 +34213,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>593.5422977113961</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34383,7 +34383,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
         <v>790.8204499236507</v>
@@ -34444,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34453,22 +34453,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>279.2419622547062</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34783,25 +34783,25 @@
         <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="M3" t="n">
         <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>640.5848321000387</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>590.9487307432803</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>436.2707275254369</v>
       </c>
       <c r="Q3" t="n">
         <v>116.4807223308545</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L6" t="n">
         <v>297.6803606378501</v>
@@ -35029,10 +35029,10 @@
         <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>640.5848321000387</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>323.3401249335299</v>
+        <v>490.1260733652761</v>
       </c>
       <c r="Q6" t="n">
         <v>116.4807223308545</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35345,13 +35345,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902405</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>108.4053175402702</v>
       </c>
       <c r="M12" t="n">
-        <v>439.1903400640635</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992801</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
@@ -35579,7 +35579,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
         <v>373.2618997060455</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>272.5107846304694</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>220.9409070342392</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236315111</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121313</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,31 +36196,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,16 +36442,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>200.7949786802847</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,25 +36679,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>235.5010321525773</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,28 +36907,28 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>108.4053175402704</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,22 +37153,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>98.78558167418976</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,22 +37390,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>197.843263306679</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,25 +37618,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>187.1368183553855</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,19 +37864,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>462.2005856280628</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38031,7 +38031,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,22 +38101,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>140.6875824748321</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_14_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_14_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2843451.241991101</v>
+        <v>2845211.772293885</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -661,7 +661,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -670,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>160.9222939728191</v>
+        <v>267.5891494350689</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -867,19 +867,19 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
         <v>171.1971464172148</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -904,19 +904,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>32.45904135192755</v>
       </c>
       <c r="G5" t="n">
-        <v>55.32302882852935</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247052</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>120.3332554667399</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1101,22 +1101,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>261.7732822621412</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>242.8528437613028</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>168.1158122680975</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1299,10 +1299,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>74.75769145492379</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -1347,7 +1347,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>69.11451899103581</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1378,7 +1378,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722626</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1533,19 +1533,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>19.91555826189108</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701356</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1779,10 +1779,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>172.026033500079</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2092,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417122</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2143,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174139</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2238,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>60.42721558712974</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856552</v>
@@ -2295,10 +2295,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>265.1755449233449</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2487,13 +2487,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>103.1686991936197</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2569,10 +2569,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2730,7 +2730,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2769,7 +2769,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2952,10 +2952,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>142.4285301601181</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3043,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3192,19 +3192,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>170.9457618790577</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3429,7 +3429,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3441,10 +3441,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>100.5858322992705</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>51.36569740310382</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3723,7 +3723,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>229.2938944146487</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>102.1557845699818</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>172.026033500079</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4140,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4149,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>95.81917536083697</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>993.7429799877386</v>
+        <v>394.8580066177514</v>
       </c>
       <c r="C2" t="n">
-        <v>624.780463047327</v>
+        <v>394.8580066177514</v>
       </c>
       <c r="D2" t="n">
-        <v>624.780463047327</v>
+        <v>394.8580066177514</v>
       </c>
       <c r="E2" t="n">
-        <v>624.780463047327</v>
+        <v>394.8580066177514</v>
       </c>
       <c r="F2" t="n">
-        <v>213.7945582577194</v>
+        <v>387.912505868548</v>
       </c>
       <c r="G2" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H2" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872917</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4360,22 +4360,22 @@
         <v>2437.640120926625</v>
       </c>
       <c r="T2" t="n">
-        <v>2437.640120926625</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>2437.640120926625</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="V2" t="n">
-        <v>2106.577233583054</v>
+        <v>1897.831592188879</v>
       </c>
       <c r="W2" t="n">
-        <v>1753.80857831294</v>
+        <v>1545.062936918765</v>
       </c>
       <c r="X2" t="n">
-        <v>1380.34282005186</v>
+        <v>1171.597178657685</v>
       </c>
       <c r="Y2" t="n">
-        <v>1380.34282005186</v>
+        <v>781.4578466818732</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182524</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H3" t="n">
         <v>71.67401812057901</v>
@@ -4415,16 +4415,16 @@
         <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>932.4978103100997</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M3" t="n">
-        <v>1295.75982926932</v>
+        <v>956.284402521753</v>
       </c>
       <c r="N3" t="n">
-        <v>1683.044957866265</v>
+        <v>1590.463386300791</v>
       </c>
       <c r="O3" t="n">
-        <v>2015.115393042426</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P3" t="n">
         <v>2447.023413292609</v>
@@ -4442,16 +4442,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4515,16 +4515,16 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1463.519709552058</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1463.519709552058</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U4" t="n">
-        <v>1463.519709552058</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V4" t="n">
-        <v>1463.519709552058</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W4" t="n">
         <v>1463.519709552058</v>
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>472.3398332255019</v>
+        <v>1614.225191671743</v>
       </c>
       <c r="C5" t="n">
-        <v>472.3398332255019</v>
+        <v>1614.225191671743</v>
       </c>
       <c r="D5" t="n">
-        <v>114.0741346187514</v>
+        <v>1255.959493064992</v>
       </c>
       <c r="E5" t="n">
-        <v>114.0741346187514</v>
+        <v>870.171240466748</v>
       </c>
       <c r="F5" t="n">
-        <v>107.1286338695479</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G5" t="n">
-        <v>51.2467865680031</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H5" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J5" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230816</v>
       </c>
       <c r="O5" t="n">
         <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764996</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723849</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="T5" t="n">
-        <v>2228.89447953245</v>
+        <v>2353.593687005979</v>
       </c>
       <c r="U5" t="n">
-        <v>1975.313418796629</v>
+        <v>2353.593687005979</v>
       </c>
       <c r="V5" t="n">
-        <v>1975.313418796629</v>
+        <v>2353.593687005979</v>
       </c>
       <c r="W5" t="n">
-        <v>1622.544763526515</v>
+        <v>2000.825031735865</v>
       </c>
       <c r="X5" t="n">
-        <v>1249.079005265435</v>
+        <v>2000.825031735865</v>
       </c>
       <c r="Y5" t="n">
-        <v>858.9396732896237</v>
+        <v>2000.825031735865</v>
       </c>
     </row>
     <row r="6">
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500113</v>
+        <v>238.427330237016</v>
       </c>
       <c r="K6" t="n">
-        <v>560.1394111735141</v>
+        <v>590.20497511435</v>
       </c>
       <c r="L6" t="n">
-        <v>854.8429682049857</v>
+        <v>884.9085321458216</v>
       </c>
       <c r="M6" t="n">
-        <v>1218.104987164206</v>
+        <v>1248.170551105042</v>
       </c>
       <c r="N6" t="n">
-        <v>1605.390115761151</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O6" t="n">
-        <v>1937.460550937313</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P6" t="n">
-        <v>2422.685363568936</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q6" t="n">
         <v>2538.001278676482</v>
@@ -4679,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4688,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>369.3498906720603</v>
+        <v>172.7955294637</v>
       </c>
       <c r="C7" t="n">
-        <v>369.3498906720603</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="D7" t="n">
-        <v>219.2332512597245</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="E7" t="n">
-        <v>219.2332512597245</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="F7" t="n">
-        <v>219.2332512597245</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="G7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="H7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312193</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
@@ -4749,28 +4749,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1337.23396574994</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1337.23396574994</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1337.23396574994</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="V7" t="n">
-        <v>1082.549477544053</v>
+        <v>1092.643294372448</v>
       </c>
       <c r="W7" t="n">
-        <v>818.1320207136077</v>
+        <v>803.2261243354872</v>
       </c>
       <c r="X7" t="n">
-        <v>590.1424698155904</v>
+        <v>575.2365734374698</v>
       </c>
       <c r="Y7" t="n">
-        <v>369.3498906720603</v>
+        <v>354.4439942939397</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2175.400891308156</v>
+        <v>2175.400891308158</v>
       </c>
       <c r="C8" t="n">
-        <v>1806.438374367744</v>
+        <v>1806.438374367746</v>
       </c>
       <c r="D8" t="n">
-        <v>1448.172675760994</v>
+        <v>1448.172675760996</v>
       </c>
       <c r="E8" t="n">
-        <v>1062.38442316275</v>
+        <v>1062.384423162752</v>
       </c>
       <c r="F8" t="n">
-        <v>651.3985183731422</v>
+        <v>651.398518373144</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>236.3260682181405</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="X8" t="n">
-        <v>2952.14006334809</v>
+        <v>2952.140063348092</v>
       </c>
       <c r="Y8" t="n">
-        <v>2562.000731372278</v>
+        <v>2562.00073137228</v>
       </c>
     </row>
     <row r="9">
@@ -4880,16 +4880,16 @@
         <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228003</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031474</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4938,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>361.3151575124868</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="C10" t="n">
-        <v>361.3151575124868</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="D10" t="n">
-        <v>361.3151575124868</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300937</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218339</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218339</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218339</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4983,10 +4983,10 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
         <v>1645.778206672847</v>
@@ -4995,19 +4995,19 @@
         <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1354.198945796882</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1099.514457590995</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>810.0972875540343</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X10" t="n">
-        <v>582.107736656017</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="Y10" t="n">
-        <v>361.3151575124868</v>
+        <v>142.0249360836216</v>
       </c>
     </row>
     <row r="11">
@@ -5017,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
@@ -5035,55 +5035,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,10 +5114,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J12" t="n">
         <v>245.2306927803938</v>
@@ -5126,16 +5126,16 @@
         <v>245.2306927803938</v>
       </c>
       <c r="L12" t="n">
-        <v>352.5519571452613</v>
+        <v>740.5562989961526</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718132</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2517.442480416598</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>560.7825789706076</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C13" t="n">
-        <v>391.8463960427007</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D13" t="n">
-        <v>241.729756630365</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E13" t="n">
-        <v>93.81666304797189</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797189</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5223,28 +5223,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2426.846358063199</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2243.991523718104</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2024.390058741045</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1735.314832085242</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1480.630343879355</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1191.213173842395</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>963.2236229443774</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>742.4310438008473</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5260,13 +5260,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5275,25 +5275,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P15" t="n">
         <v>2319.799627685893</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5497,13 +5497,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5515,13 +5515,13 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111709</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014778</v>
@@ -5530,7 +5530,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5591,13 +5591,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="20">
@@ -5731,13 +5731,13 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F20" t="n">
         <v>793.7736536168611</v>
@@ -5791,10 +5791,10 @@
         <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>634.4644740681601</v>
+        <v>789.7592298206043</v>
       </c>
       <c r="C22" t="n">
-        <v>465.5282911402533</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D22" t="n">
-        <v>465.5282911402533</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E22" t="n">
-        <v>317.6151975578601</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F22" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
@@ -5943,19 +5943,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1709.606994729352</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1709.606994729352</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1420.189824692392</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>1192.200273794374</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>971.4076946508441</v>
       </c>
     </row>
     <row r="23">
@@ -5977,22 +5977,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6001,10 +6001,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,7 +6062,7 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
         <v>95.58405025273905</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>198.0274703142544</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6202,31 +6202,31 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G26" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075809</v>
@@ -6244,34 +6244,34 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,16 +6299,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6445,28 +6445,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332386</v>
@@ -6478,7 +6478,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6539,13 +6539,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
@@ -6621,52 +6621,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166297</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="32">
@@ -6679,7 +6679,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6688,25 +6688,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014778</v>
@@ -6715,34 +6715,34 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,16 +6773,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>560.7825789706076</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>391.8463960427007</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>241.729756630365</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>93.81666304797189</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>93.81666304797189</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>2024.390058741045</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1735.314832085242</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1480.630343879355</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1191.213173842395</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>963.2236229443774</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>742.4310438008473</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6925,31 +6925,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.422291068009</v>
@@ -7013,13 +7013,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>662.1522880254209</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>493.2161050975141</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000582</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2345.361232772917</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2125.759767795858</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1836.684541140056</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1582.000052934169</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1292.582882897208</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1064.593331999191</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>843.8007528556607</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004712</v>
@@ -7162,34 +7162,34 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7250,13 +7250,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>931.4710609784063</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>762.5348780504994</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>612.4182386381636</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>464.5051450557705</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>317.6151975578601</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2395.078540748843</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>2106.003314093041</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1851.318825887154</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1561.901655850193</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>1333.912104952176</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>1113.119525808646</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7399,25 +7399,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014778</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400717</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121648</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121648</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E43" t="n">
-        <v>197.0043242297717</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F43" t="n">
-        <v>197.0043242297717</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="44">
@@ -7639,19 +7639,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7724,13 +7724,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>733.4550657171301</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>564.5188827892232</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D46" t="n">
-        <v>414.4022433768874</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E46" t="n">
-        <v>414.4022433768874</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F46" t="n">
-        <v>414.4022433768874</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>915.1035305473698</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -8063,19 +8063,19 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>342.9044714621886</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>249.3877325071649</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>280.1079373569282</v>
       </c>
       <c r="P3" t="n">
-        <v>186.5911984019046</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>168.7434581780647</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8312,10 +8312,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>240.4465442417438</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -9655,7 +9655,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>-7.72911902643801e-14</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -23421,19 +23421,19 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856552</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.45968844823058</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>114.1584408891651</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24126,25 +24126,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>119.4047645948075</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24183,10 +24183,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>21.0089294658992</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24375,16 +24375,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>62.35543909864911</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24840,10 +24840,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>24.8182909385097</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>46.45968844823054</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>80.44045370237413</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>166.0397529241845</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25611,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>63.36835372228705</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>114.1584408891651</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26037,13 +26037,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>69.70496293143188</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26076,7 +26076,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>755149.8202234281</v>
+        <v>755149.8202234283</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>755149.8202234281</v>
+        <v>755149.8202234282</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>755149.8202234281</v>
+        <v>755149.8202234282</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>755149.8202234282</v>
+        <v>755149.8202234281</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>755149.8202234282</v>
+        <v>755149.8202234281</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>755149.8202234281</v>
+        <v>755149.8202234283</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>755149.8202234282</v>
+        <v>755149.8202234281</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.460138034</v>
+        <v>677359.4601380338</v>
       </c>
       <c r="C2" t="n">
+        <v>677359.4601380334</v>
+      </c>
+      <c r="D2" t="n">
         <v>677359.4601380336</v>
       </c>
-      <c r="D2" t="n">
-        <v>677359.4601380337</v>
-      </c>
       <c r="E2" t="n">
-        <v>665895.944744255</v>
+        <v>665895.9447442549</v>
       </c>
       <c r="F2" t="n">
         <v>665895.9447442549</v>
       </c>
       <c r="G2" t="n">
-        <v>665895.9447442547</v>
+        <v>665895.944744255</v>
       </c>
       <c r="H2" t="n">
         <v>665895.944744255</v>
       </c>
       <c r="I2" t="n">
-        <v>665895.9447442552</v>
+        <v>665895.944744255</v>
       </c>
       <c r="J2" t="n">
+        <v>665895.9447442549</v>
+      </c>
+      <c r="K2" t="n">
+        <v>665895.9447442548</v>
+      </c>
+      <c r="L2" t="n">
+        <v>665895.9447442547</v>
+      </c>
+      <c r="M2" t="n">
+        <v>665895.9447442547</v>
+      </c>
+      <c r="N2" t="n">
+        <v>665895.9447442547</v>
+      </c>
+      <c r="O2" t="n">
         <v>665895.944744255</v>
       </c>
-      <c r="K2" t="n">
-        <v>665895.9447442549</v>
-      </c>
-      <c r="L2" t="n">
-        <v>665895.9447442553</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="P2" t="n">
         <v>665895.944744255</v>
-      </c>
-      <c r="N2" t="n">
-        <v>665895.944744255</v>
-      </c>
-      <c r="O2" t="n">
-        <v>665895.9447442552</v>
-      </c>
-      <c r="P2" t="n">
-        <v>665895.9447442549</v>
       </c>
     </row>
     <row r="3">
@@ -26371,40 +26371,40 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403377</v>
+        <v>192627.1404403382</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073556</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.92547595343986e-11</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099824</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819074</v>
+        <v>48293.97000819086</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.540129233035259e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,40 +26417,40 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>136726.2736921025</v>
+      </c>
+      <c r="C4" t="n">
         <v>136726.2736921026</v>
       </c>
-      <c r="C4" t="n">
-        <v>136726.2736921025</v>
-      </c>
       <c r="D4" t="n">
-        <v>88524.23512810792</v>
+        <v>88524.23512810784</v>
       </c>
       <c r="E4" t="n">
-        <v>9337.200356756552</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="F4" t="n">
+        <v>9337.200356756557</v>
+      </c>
+      <c r="G4" t="n">
         <v>9337.200356756592</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
+        <v>9337.200356756555</v>
+      </c>
+      <c r="I4" t="n">
         <v>9337.20035675659</v>
       </c>
-      <c r="H4" t="n">
-        <v>9337.20035675655</v>
-      </c>
-      <c r="I4" t="n">
-        <v>9337.200356756559</v>
-      </c>
       <c r="J4" t="n">
+        <v>9337.200356756653</v>
+      </c>
+      <c r="K4" t="n">
         <v>9337.20035675659</v>
-      </c>
-      <c r="K4" t="n">
-        <v>9337.200356756592</v>
       </c>
       <c r="L4" t="n">
         <v>9337.20035675659</v>
       </c>
       <c r="M4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="N4" t="n">
         <v>9337.20035675659</v>
@@ -26472,7 +26472,7 @@
         <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984469</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-667056.3695698327</v>
+        <v>-667056.3695698328</v>
       </c>
       <c r="C6" t="n">
-        <v>447695.4140060864</v>
+        <v>447695.4140060861</v>
       </c>
       <c r="D6" t="n">
-        <v>288274.1440081948</v>
+        <v>288274.1440081943</v>
       </c>
       <c r="E6" t="n">
-        <v>229676.3735018788</v>
+        <v>229989.0148308002</v>
       </c>
       <c r="F6" t="n">
-        <v>555088.8353092346</v>
+        <v>555401.4766381555</v>
       </c>
       <c r="G6" t="n">
-        <v>555088.8353092341</v>
+        <v>555401.4766381558</v>
       </c>
       <c r="H6" t="n">
-        <v>555088.8353092342</v>
+        <v>555401.4766381558</v>
       </c>
       <c r="I6" t="n">
-        <v>555088.8353092346</v>
+        <v>555401.4766381558</v>
       </c>
       <c r="J6" t="n">
-        <v>387483.6574992518</v>
+        <v>387796.298828173</v>
       </c>
       <c r="K6" t="n">
-        <v>555088.8353092342</v>
+        <v>555401.4766381555</v>
       </c>
       <c r="L6" t="n">
-        <v>506794.8653010439</v>
+        <v>507107.5066299645</v>
       </c>
       <c r="M6" t="n">
-        <v>470033.8073737225</v>
+        <v>470346.4487026435</v>
       </c>
       <c r="N6" t="n">
-        <v>555088.8353092344</v>
+        <v>555401.4766381554</v>
       </c>
       <c r="O6" t="n">
-        <v>555088.8353092346</v>
+        <v>555401.4766381556</v>
       </c>
       <c r="P6" t="n">
-        <v>555088.8353092344</v>
+        <v>555401.4766381558</v>
       </c>
     </row>
   </sheetData>
@@ -26709,10 +26709,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.656844941799826e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.656844941799826e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26740,7 +26740,7 @@
         <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.064892117539</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26792,16 +26792,16 @@
         <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000385</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="F4" t="n">
         <v>1172.708288099649</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26810,16 +26810,16 @@
         <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="J4" t="n">
         <v>1172.708288099648</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26922,7 +26922,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.656844941799826e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.711808475759</v>
+        <v>155.7118084757593</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,28 +26977,28 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.8166233022544</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000383</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022544</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27159,7 +27159,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.656844941799826e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.8166233022544</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,7 +27381,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27390,16 +27390,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>250.6254088001348</v>
+        <v>143.9585533378851</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27587,7 +27587,7 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>23.46531394452265</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
@@ -27599,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>115.3258519193762</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27624,19 +27624,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>374.4170043897839</v>
       </c>
       <c r="G5" t="n">
-        <v>356.2246739444246</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27681,10 +27681,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>46.91356563188791</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27788,7 +27788,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
         <v>147.2515091551289</v>
@@ -27821,22 +27821,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>24.74971607444985</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>168.0688818921506</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>126.491952119223</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,7 +27906,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -28019,10 +28019,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -28031,7 +28031,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>21.5947289549143</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28067,7 +28067,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>217.0973192145771</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28098,7 +28098,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>-8.769077418225512e-13</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -28386,7 +28386,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>-7.394985773160066e-13</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -28812,7 +28812,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>-7.81894760577762e-13</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -28863,7 +28863,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>-5.487218467042014e-13</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -29289,7 +29289,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -31281,7 +31281,7 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336177</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
@@ -31299,7 +31299,7 @@
         <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342222</v>
       </c>
       <c r="O5" t="n">
         <v>632.6811099166594</v>
@@ -31314,13 +31314,13 @@
         <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745095</v>
       </c>
       <c r="T5" t="n">
         <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744846</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,7 +31357,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347159</v>
       </c>
       <c r="H6" t="n">
         <v>19.4038763438002</v>
@@ -31369,22 +31369,22 @@
         <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178437</v>
       </c>
       <c r="L6" t="n">
         <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040587</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.538811676207</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405673</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378624</v>
       </c>
       <c r="Q6" t="n">
         <v>256.462496416876</v>
@@ -31436,7 +31436,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.684379313654579</v>
+        <v>1.684379313654578</v>
       </c>
       <c r="H7" t="n">
         <v>14.97566335231072</v>
@@ -31451,10 +31451,10 @@
         <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
-        <v>250.4212663227908</v>
+        <v>250.4212663227907</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849626</v>
       </c>
       <c r="N7" t="n">
         <v>257.7559726067958</v>
@@ -31469,13 +31469,13 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759584</v>
       </c>
       <c r="S7" t="n">
         <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.19689343106956</v>
       </c>
       <c r="U7" t="n">
         <v>0.09187523529024984</v>
@@ -31515,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31600,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31688,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31706,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31846,7 +31846,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>246.9596973201444</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862122</v>
@@ -31858,7 +31858,7 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>169.9530009943068</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32080,37 +32080,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>414.6448185524877</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>230.9747494877451</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,16 +32317,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
         <v>398.7616643558013</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
         <v>398.7616643558013</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,16 +33028,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
         <v>398.7616643558013</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,16 +33265,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>398.7616643558013</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,16 +33502,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
         <v>398.7616643558013</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,16 +33739,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>398.7616643558013</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
         <v>398.7616643558013</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,16 +34450,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
         <v>398.7616643558013</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34783,19 +34783,19 @@
         <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>640.5848321000387</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
         <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>615.5326193530511</v>
       </c>
       <c r="P3" t="n">
-        <v>436.2707275254369</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
         <v>116.4807223308545</v>
@@ -34938,7 +34938,7 @@
         <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407336</v>
       </c>
       <c r="L5" t="n">
         <v>356.8062301067507</v>
@@ -34947,7 +34947,7 @@
         <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376313</v>
       </c>
       <c r="O5" t="n">
         <v>402.5828984949726</v>
@@ -34959,7 +34959,7 @@
         <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939898</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
-        <v>451.0527332560634</v>
+        <v>355.3309544215494</v>
       </c>
       <c r="L6" t="n">
         <v>297.6803606378501</v>
@@ -35026,19 +35026,19 @@
         <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>391.1970995928738</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961229</v>
       </c>
       <c r="P6" t="n">
-        <v>490.1260733652761</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977091</v>
+        <v>24.5838886097709</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870591</v>
       </c>
       <c r="K7" t="n">
         <v>173.424759342349</v>
@@ -35102,7 +35102,7 @@
         <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468032</v>
       </c>
       <c r="N7" t="n">
         <v>301.8881449860244</v>
@@ -35111,7 +35111,7 @@
         <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
-        <v>200.9965809818072</v>
+        <v>200.9965809818071</v>
       </c>
       <c r="Q7" t="n">
         <v>54.881755458054</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35345,13 +35345,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35494,7 +35494,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>108.4053175402702</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
@@ -35506,7 +35506,7 @@
         <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>35.9785935799765</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,22 +35731,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>272.5107846304694</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>97.00034207341486</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,13 +35968,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
         <v>256.1654199113569</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683802</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,13 +36442,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
         <v>256.1654199113569</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,13 +36679,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
         <v>256.1654199113569</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,13 +36916,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>256.1654199113569</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,13 +37153,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
         <v>256.1654199113569</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,13 +37390,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>256.1654199113569</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
         <v>256.1654199113569</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,13 +38101,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
         <v>256.1654199113569</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
